--- a/biology/Zoologie/Conus_santinii/Conus_santinii.xlsx
+++ b/biology/Zoologie/Conus_santinii/Conus_santinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus santinii est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 21 mm et 30 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine se trouve dans l'océan Pacifique et est endémique aux Fidji.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus santinii a été décrite pour la première fois en 2014 par les malacologistes Éric Monnier (d) et Loíc Limpalaër[1].
-Synonymes
-Conus (Phasmoconus) santinii (Monnier &amp; Limpalaër, 2014) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus santinii a été décrite pour la première fois en 2014 par les malacologistes Éric Monnier (d) et Loíc Limpalaër.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_santinii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_santinii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) santinii (Monnier &amp; Limpalaër, 2014) · appellation alternative
 Phasmoconus (Fulgiconus) santinii Monnier &amp; Limpalaër, 2014 · non accepté
 Phasmoconus santinii Monnier &amp; Limpalaër, 2014 · non accepté (combinaison originale)</t>
         </is>
